--- a/data/trans_dic/iP30B4_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP30B4_2023-Estudios-trans_dic.xlsx
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,79; 100,0</t>
+          <t>87,32; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,61; 100,0</t>
+          <t>91,48; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,17; 99,34</t>
+          <t>92,18; 99,04</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,54; 99,8</t>
+          <t>98,47; 99,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,08; 97,97</t>
+          <t>95,05; 97,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,33; 98,81</t>
+          <t>97,26; 98,85</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,8; 100,0</t>
+          <t>96,61; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,4; 99,19</t>
+          <t>95,35; 99,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,77; 99,31</t>
+          <t>96,93; 99,31</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98,23; 99,54</t>
+          <t>98,25; 99,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,8; 98,06</t>
+          <t>95,76; 98,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,43; 98,72</t>
+          <t>97,41; 98,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B4_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP30B4_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,06%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,97; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>88,83; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>93,08; 99,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>99,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>98,22%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,32; 100,0</t>
+          <t>95,08; 98,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,48; 100,0</t>
+          <t>98,51; 99,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,18; 99,04</t>
+          <t>97,35; 98,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>98,52%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,47; 99,8</t>
+          <t>95,62; 99,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,05; 97,98</t>
+          <t>96,43; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,26; 98,85</t>
+          <t>97,02; 99,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,2%</t>
         </is>
       </c>
     </row>
@@ -729,81 +729,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,61; 100,0</t>
+          <t>95,82; 98,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,35; 99,18</t>
+          <t>98,28; 99,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,93; 99,31</t>
+          <t>97,46; 98,73</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>99,07%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>97,07%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>98,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>98,25; 99,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>95,76; 98,07</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>97,41; 98,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
